--- a/Data/classrooms.xlsx
+++ b/Data/classrooms.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernazehraural/Desktop/SA_Timetabling/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB26E162-CC46-BC4E-9762-3EF852BA10DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="ExamPeriod"/>
+    <sheet name="ExamPeriod" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Sınav Dönemi'!$A$1:$O$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ExamPeriod!$A$1:$O$78</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -688,8 +694,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -701,7 +706,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -734,12 +739,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc0c0c0"/>
+        <fgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,43 +776,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -818,10 +826,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -859,71 +867,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -951,7 +959,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -974,11 +982,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -987,13 +995,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1003,7 +1011,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1012,7 +1020,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1021,7 +1029,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1029,10 +1037,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1097,36 +1105,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="8" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="50.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="45.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="50.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="23.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="45.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="50" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30" customFormat="1" s="1">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1227,7 @@
       </c>
       <c r="O2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1272,7 @@
       </c>
       <c r="O3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -1308,7 +1317,7 @@
       </c>
       <c r="O4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -1353,7 +1362,7 @@
       </c>
       <c r="O5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -1398,7 +1407,7 @@
       </c>
       <c r="O6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1443,7 +1452,7 @@
       </c>
       <c r="O7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -1488,7 +1497,7 @@
       </c>
       <c r="O8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -1533,7 +1542,7 @@
       </c>
       <c r="O9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -1578,7 +1587,7 @@
       </c>
       <c r="O10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33" customFormat="1" s="1">
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
@@ -1623,7 +1632,7 @@
       </c>
       <c r="O11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>51</v>
       </c>
@@ -1668,7 +1677,7 @@
       </c>
       <c r="O12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
@@ -1713,7 +1722,7 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
@@ -1758,7 +1767,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>57</v>
       </c>
@@ -1803,7 +1812,7 @@
       </c>
       <c r="O15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
@@ -1848,7 +1857,7 @@
       </c>
       <c r="O16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>63</v>
       </c>
@@ -1893,7 +1902,7 @@
       </c>
       <c r="O17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>68</v>
       </c>
@@ -1938,7 +1947,7 @@
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>72</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
@@ -2030,7 +2039,7 @@
       </c>
       <c r="O20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -2075,7 +2084,7 @@
       </c>
       <c r="O21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>80</v>
       </c>
@@ -2120,7 +2129,7 @@
       </c>
       <c r="O22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>83</v>
       </c>
@@ -2165,7 +2174,7 @@
       </c>
       <c r="O23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="24" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>85</v>
       </c>
@@ -2210,7 +2219,7 @@
       </c>
       <c r="O24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>87</v>
       </c>
@@ -2255,7 +2264,7 @@
       </c>
       <c r="O25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>89</v>
       </c>
@@ -2300,7 +2309,7 @@
       </c>
       <c r="O26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>91</v>
       </c>
@@ -2345,7 +2354,7 @@
       </c>
       <c r="O27" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>93</v>
       </c>
@@ -2390,7 +2399,7 @@
       </c>
       <c r="O28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>95</v>
       </c>
@@ -2435,7 +2444,7 @@
       </c>
       <c r="O29" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>97</v>
       </c>
@@ -2480,7 +2489,7 @@
       </c>
       <c r="O30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>99</v>
       </c>
@@ -2525,7 +2534,7 @@
       </c>
       <c r="O31" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>101</v>
       </c>
@@ -2570,7 +2579,7 @@
       </c>
       <c r="O32" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
@@ -2615,7 +2624,7 @@
       </c>
       <c r="O33" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>105</v>
       </c>
@@ -2660,7 +2669,7 @@
       </c>
       <c r="O34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>107</v>
       </c>
@@ -2705,7 +2714,7 @@
       </c>
       <c r="O35" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>109</v>
       </c>
@@ -2750,7 +2759,7 @@
       </c>
       <c r="O36" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>111</v>
       </c>
@@ -2795,7 +2804,7 @@
       </c>
       <c r="O37" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>113</v>
       </c>
@@ -2840,7 +2849,7 @@
       </c>
       <c r="O38" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="39" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>115</v>
       </c>
@@ -2885,7 +2894,7 @@
       </c>
       <c r="O39" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="40" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>117</v>
       </c>
@@ -2930,7 +2939,7 @@
       </c>
       <c r="O40" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="41" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>119</v>
       </c>
@@ -2975,7 +2984,7 @@
       </c>
       <c r="O41" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="42" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>121</v>
       </c>
@@ -3020,7 +3029,7 @@
       </c>
       <c r="O42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="43" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>123</v>
       </c>
@@ -3065,7 +3074,7 @@
       </c>
       <c r="O43" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="44" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>125</v>
       </c>
@@ -3110,7 +3119,7 @@
       </c>
       <c r="O44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="45" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>127</v>
       </c>
@@ -3155,7 +3164,7 @@
       </c>
       <c r="O45" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="46" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>132</v>
       </c>
@@ -3200,7 +3209,7 @@
       </c>
       <c r="O46" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="47" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>135</v>
       </c>
@@ -3245,7 +3254,7 @@
       </c>
       <c r="O47" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="48" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>137</v>
       </c>
@@ -3290,7 +3299,7 @@
       </c>
       <c r="O48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="49" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>139</v>
       </c>
@@ -3337,7 +3346,7 @@
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="50" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>142</v>
       </c>
@@ -3382,7 +3391,7 @@
       </c>
       <c r="O50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="51" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>144</v>
       </c>
@@ -3427,7 +3436,7 @@
       </c>
       <c r="O51" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="52" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>146</v>
       </c>
@@ -3472,7 +3481,7 @@
       </c>
       <c r="O52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="53" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>149</v>
       </c>
@@ -3517,7 +3526,7 @@
       </c>
       <c r="O53" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="54" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>152</v>
       </c>
@@ -3562,7 +3571,7 @@
       </c>
       <c r="O54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="55" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>154</v>
       </c>
@@ -3607,7 +3616,7 @@
       </c>
       <c r="O55" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="56" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>156</v>
       </c>
@@ -3652,7 +3661,7 @@
       </c>
       <c r="O56" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="57" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>158</v>
       </c>
@@ -3697,7 +3706,7 @@
       </c>
       <c r="O57" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="58" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>160</v>
       </c>
@@ -3742,7 +3751,7 @@
       </c>
       <c r="O58" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="59" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>162</v>
       </c>
@@ -3787,7 +3796,7 @@
       </c>
       <c r="O59" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="60" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>164</v>
       </c>
@@ -3832,7 +3841,7 @@
       </c>
       <c r="O60" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="61" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>167</v>
       </c>
@@ -3877,7 +3886,7 @@
       </c>
       <c r="O61" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="62" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>170</v>
       </c>
@@ -3922,7 +3931,7 @@
       </c>
       <c r="O62" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="63" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>172</v>
       </c>
@@ -3967,7 +3976,7 @@
       </c>
       <c r="O63" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="64" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>175</v>
       </c>
@@ -4012,7 +4021,7 @@
       </c>
       <c r="O64" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="65" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>179</v>
       </c>
@@ -4057,7 +4066,7 @@
       </c>
       <c r="O65" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="66" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>183</v>
       </c>
@@ -4102,7 +4111,7 @@
       </c>
       <c r="O66" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="67" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>186</v>
       </c>
@@ -4147,7 +4156,7 @@
       </c>
       <c r="O67" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="68" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>188</v>
       </c>
@@ -4192,7 +4201,7 @@
       </c>
       <c r="O68" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="69" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>191</v>
       </c>
@@ -4237,7 +4246,7 @@
       </c>
       <c r="O69" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="70" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>194</v>
       </c>
@@ -4282,7 +4291,7 @@
       </c>
       <c r="O70" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="71" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>197</v>
       </c>
@@ -4327,7 +4336,7 @@
       </c>
       <c r="O71" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="72" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>201</v>
       </c>
@@ -4372,7 +4381,7 @@
       </c>
       <c r="O72" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="73" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>204</v>
       </c>
@@ -4417,7 +4426,7 @@
       </c>
       <c r="O73" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="74" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>206</v>
       </c>
@@ -4462,7 +4471,7 @@
       </c>
       <c r="O74" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="75" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>210</v>
       </c>
@@ -4507,7 +4516,7 @@
       </c>
       <c r="O75" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="76" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>214</v>
       </c>
@@ -4552,7 +4561,7 @@
       </c>
       <c r="O76" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="77" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>215</v>
       </c>
@@ -4599,7 +4608,7 @@
         <v>218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="78" spans="1:15" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>219</v>
       </c>
@@ -4645,6 +4654,7 @@
       <c r="O78" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O78" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>